--- a/biology/Botanique/Sabline_d'Espagne/Sabline_d'Espagne.xlsx
+++ b/biology/Botanique/Sabline_d'Espagne/Sabline_d'Espagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sabline_d%27Espagne</t>
+          <t>Sabline_d'Espagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arenaria hispanica
 La sabline d'Espagne (Arenaria hispanica) est une espèce de plante herbacée vivace de la famille des caryophyllacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sabline_d%27Espagne</t>
+          <t>Sabline_d'Espagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante annuelle d’une vingtaine de centimètres de hauteur présente des feuilles longues de 4 à 24 mm, pour 1 à 6 mm de largeur[1].
-Appareil reproducteur
-La floraison a lieu entre février et juin.
-L'inflorescence est une cyme bipare. La fleur présente un calice formé de 5 sépales ovales ou lancéolés de 3 à 5 mm de longueur. Les pétales blancs, au nombre de 5, mesurent de 5 à 9 mm de longueur. L'androcée comprend 10 étamines et l'ovaire est surmonté de 3 styles libres. Le fruit est une capsule ovoïde de 5 à 7 mm de longueur[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante annuelle d’une vingtaine de centimètres de hauteur présente des feuilles longues de 4 à 24 mm, pour 1 à 6 mm de largeur.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sabline_d%27Espagne</t>
+          <t>Sabline_d'Espagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre février et juin.
+L'inflorescence est une cyme bipare. La fleur présente un calice formé de 5 sépales ovales ou lancéolés de 3 à 5 mm de longueur. Les pétales blancs, au nombre de 5, mesurent de 5 à 9 mm de longueur. L'androcée comprend 10 étamines et l'ovaire est surmonté de 3 styles libres. Le fruit est une capsule ovoïde de 5 à 7 mm de longueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sabline_d'Espagne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sabline_d%27Espagne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition couvre le sud de l'Espagne et une partie de l'Afrique du Nord. Elle pousse dans les zones rocailleuses naturelles ou cultivées, jusqu'à 800 m d'altitude[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition couvre le sud de l'Espagne et une partie de l'Afrique du Nord. Elle pousse dans les zones rocailleuses naturelles ou cultivées, jusqu'à 800 m d'altitude.
 </t>
         </is>
       </c>
